--- a/export.xlsx
+++ b/export.xlsx
@@ -630,7 +630,7 @@
   <dimension ref="A1:F147"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A51" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H63" activeCellId="0" sqref="H63"/>
+      <selection pane="topLeft" activeCell="B57" activeCellId="0" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
